--- a/data/Maintained Snake River IPTDS Metadata 20241211.xlsx
+++ b/data/Maintained Snake River IPTDS Metadata 20241211.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA67BE0-3347-4F90-8EE2-D6B980C1BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F1497-D7A8-4244-AA37-6E72ED85150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR_IPTDS_Sites" sheetId="3" r:id="rId1"/>
     <sheet name="validation" sheetId="7" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SR_IPTDS_Sites!$A$1:$T$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SR_IPTDS_Sites!$A$1:$T$112</definedName>
     <definedName name="figure_1_outcomes">validation!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="566">
   <si>
     <t>stream</t>
   </si>
@@ -1417,9 +1417,6 @@
     <t>BPA FWP Contracts</t>
   </si>
   <si>
-    <t>USFWS</t>
-  </si>
-  <si>
     <t>Biomark/NPT</t>
   </si>
   <si>
@@ -1498,9 +1495,6 @@
     <t>bpa_funding</t>
   </si>
   <si>
-    <t>Idaho Power helps pay for the satellite subscription service.</t>
-  </si>
-  <si>
     <t>Catherine Creek Ladder/Weir</t>
   </si>
   <si>
@@ -1702,7 +1696,49 @@
     <t>Good w/ Upgrades</t>
   </si>
   <si>
-    <t>Two submersible ring antennas located in lower Clear Creek, a tributary to the Clearwater River, just downstream of Kooskia National Fish Hatchery. The array (CLC) is located at river km 522.224.120.004.001 and consists of two 6-foot Biomark submersible ring antennas that are spaced approximately 19 meters apart in the river right channel, just upstream from the hatchery pumping station near the mouth of Clear Creek. The system is powered by a rechargeable 6-volt lithium battery that has a three-week run time. Batteries will be switched out at least every three weeks upon installation. Data is downloaded via Bluetooth on site from the internal IS1001 reader. Data will then be manually uploaded to PTAGIS through the I5 program. CLC is operated by the Nez Perce Tribe Department of Fisheries Resource Management Research Office located in Orofino, ID. The array is scheduled to be installed September 30, 2024, and be operational by October 1, 2024. This will be a temporary array until a permanent array is installed in early 2025, also by the Nez Perce Tribe. The site was originally installed and operated by US Fish and Wildlife Service from 2015 - 2018 as a single row of 5 antennas.</t>
+    <t>CC5</t>
+  </si>
+  <si>
+    <t>Catherine Creek - State Park</t>
+  </si>
+  <si>
+    <t>522.271.232.043</t>
+  </si>
+  <si>
+    <t>Catherine Creek State Park instream remote detection system is located at the upper boundary of Catherine Creek State Park. The system is comprised of two pass-over antennas: 45ft x 3ft and 25ft x 3ft. The site uses a Biomark master controller and two Biomark IS1001s to power the site. Power to the site is provided by 3 solar panels. Data are manually downloaded.</t>
+  </si>
+  <si>
+    <t>4JC</t>
+  </si>
+  <si>
+    <t>Fourth of July Creek Mouth</t>
+  </si>
+  <si>
+    <t>Fourth of July Creek</t>
+  </si>
+  <si>
+    <t>522.303.630.000</t>
+  </si>
+  <si>
+    <t>The Fourth of July Creek (4JC) interrogation site consists of a single in-stream detection system located in Fourth of July Creek in the Salmon River Basin approximately 150m upstream of the confluence of Fourth of July Creek with the Salmon River. The array consists of a single 10-foot Biomark HPDE antenna, one IS1001 antenna control node, and a battery box on the west side of the creek. The array spans the entire creek at base flow. 4JC is operated by the Idaho Department of Fish and Game Anadromous Fish Screen Program (AFS) project.</t>
+  </si>
+  <si>
+    <t>The site is located at the Oregon Dept. of Fish and Wildlife (ODFW) fish weir on the Imnaha River. The site was initially installed with two antennas in the ladder; a third antenna was added in June 2018 to monitor all fish handled in the work room at the trap. The antennas are currently driven by Biomark IS1001s and controlled by a Biomark IS1001-MC. The equipment is powered by a Hybrid- TEG (model 5220 and 1kw solar). The readers are connected to the controller via Biomark Data-Over-Power (DOP) cabling. The MC is connected to a satellite modem for remote telemetry. The site is being remotely monitored by Biomark with automatic downloads (and PTAGIS submissions) every four hours. The power supply and remote telemetry are being shared by the three interrogation sites at the weir, IR4, IR5, and IML.</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>Champion Creek</t>
+  </si>
+  <si>
+    <t>522.303.631.002</t>
+  </si>
+  <si>
+    <t>The Champion Creek (CHC) interrogation site consists of a single in-stream detection system located in Champion Creek in the Salmon River Basin approximately 1.4 km upstream of the confluence of Champion Creek with the Salmon River. The array consists of a single 15-foot Biomark HPDE antenna, one IS1001 antenna control node, and a battery box on the southern side of the creek. The array spans the entire creek at base flow. CHC is operated by the Idaho Department of Fish and Game Anadromous Fish Screen Program (AFS) project. It was installed on July 26th, 2024.</t>
+  </si>
+  <si>
+    <t>Currently consists of one upstream array located in lower Clear Creek, a tributary to the Clearwater River, just downstream of Kooskia National Fish Hatchery. The upstream portion of the array (CLC) is located at river km 522.224.120.004.001 and consists of one 10-foot Biomark pass-over antenna and two 20-foot Biomark pass-over antennas 55 meters upstream from the hatchery pumping station near the mouth of Clear Creek. The system is powered by a 2 sets of 2 12V batteries powering a Biomark IS1001-MC controller. The unit is currently powered by a solar array, but will be connected to AC power in time. Data is downloaded manually from the MC controller for the time being until remote communication can be set up. Data will then be manually uploaded to PTAGIS through the I5 program. CLC is operated by the Nez Perce Tribe Department of Fisheries Resource Management Research Office located in Orofino, ID. The upstream array went operational on 2/27/2025 and the downstream array was scheduled to be constructed afterwards, but high water prevented installation. The lower array will be installed during the summer of 2025 when low flows are present. The site was originally installed and operated by US Fish and Wildlife Service from 2015 - 2018 as a single row of 5 antennas.</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,9 +1797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2053,40 +2086,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -2094,16 +2127,16 @@
         <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -2130,16 +2163,16 @@
         <v>449</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>447</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>450</v>
@@ -2148,7 +2181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>123</v>
@@ -2186,10 +2219,10 @@
         <v>625</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>456</v>
@@ -2210,7 +2243,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>123</v>
@@ -2248,10 +2281,10 @@
         <v>641</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>456</v>
@@ -2272,7 +2305,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -2289,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>123</v>
@@ -2310,10 +2343,10 @@
         <v>675</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>456</v>
@@ -2334,7 +2367,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>123</v>
@@ -2372,13 +2405,13 @@
         <v>681</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>457</v>
@@ -2396,7 +2429,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>123</v>
@@ -2434,13 +2467,13 @@
         <v>700</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>455</v>
@@ -2458,7 +2491,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -2475,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>168</v>
@@ -2496,10 +2529,10 @@
         <v>668</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2516,12 +2549,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
@@ -2533,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>143</v>
@@ -2548,16 +2581,16 @@
         <v>-116.9669</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L8" s="1">
         <v>773</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2571,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2588,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>89</v>
@@ -2636,7 +2669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2653,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>90</v>
@@ -2698,7 +2731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2715,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>92</v>
@@ -2760,7 +2793,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>91</v>
@@ -2822,7 +2855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>93</v>
@@ -2884,7 +2917,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>93</v>
@@ -2946,7 +2979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>94</v>
@@ -3008,7 +3041,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>95</v>
@@ -3070,7 +3103,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3084,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>96</v>
@@ -3132,7 +3165,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>93</v>
@@ -3194,7 +3227,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -3211,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>97</v>
@@ -3256,7 +3289,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3270,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>100</v>
@@ -3297,13 +3330,13 @@
         <v>451</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
@@ -3318,7 +3351,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -3335,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>100</v>
@@ -3359,13 +3392,13 @@
         <v>451</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
@@ -3380,27 +3413,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>139</v>
@@ -3412,7 +3445,7 @@
         <v>-116.582295</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L22" s="1">
         <v>789</v>
@@ -3438,11 +3471,11 @@
       <c r="S22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T22" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>208</v>
       </c>
@@ -3459,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>139</v>
@@ -3500,7 +3533,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>212</v>
       </c>
@@ -3517,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>139</v>
@@ -3558,7 +3591,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -3572,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
@@ -3599,13 +3632,13 @@
         <v>451</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -3620,7 +3653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3634,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>102</v>
@@ -3661,13 +3694,13 @@
         <v>451</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -3682,7 +3715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -3696,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>98</v>
@@ -3720,31 +3753,29 @@
         <v>871</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
         <v>452</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -3758,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>99</v>
@@ -3785,13 +3816,13 @@
         <v>453</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -3806,7 +3837,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -3820,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>99</v>
@@ -3847,13 +3878,13 @@
         <v>453</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -3868,7 +3899,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -3882,10 +3913,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>101</v>
@@ -3930,7 +3961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -3944,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>101</v>
@@ -3992,7 +4023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4006,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>102</v>
@@ -4054,7 +4085,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -4068,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>102</v>
@@ -4116,7 +4147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -4130,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>103</v>
@@ -4157,13 +4188,13 @@
         <v>453</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q34" s="1">
         <v>2</v>
@@ -4178,7 +4209,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -4192,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>121</v>
@@ -4216,10 +4247,10 @@
         <v>757</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>454</v>
@@ -4240,7 +4271,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -4254,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>121</v>
@@ -4278,10 +4309,10 @@
         <v>761</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>454</v>
@@ -4302,7 +4333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4316,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
@@ -4340,10 +4371,10 @@
         <v>779</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>454</v>
@@ -4364,7 +4395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -4378,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>121</v>
@@ -4402,10 +4433,10 @@
         <v>781</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>454</v>
@@ -4426,7 +4457,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -4440,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>104</v>
@@ -4467,13 +4498,13 @@
         <v>451</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q39" s="1">
         <v>2</v>
@@ -4488,7 +4519,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -4502,10 +4533,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>105</v>
@@ -4526,13 +4557,13 @@
         <v>867</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>457</v>
@@ -4550,7 +4581,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4564,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>108</v>
@@ -4591,13 +4622,13 @@
         <v>451</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q41" s="1">
         <v>1</v>
@@ -4612,7 +4643,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -4626,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>109</v>
@@ -4674,7 +4705,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4688,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>108</v>
@@ -4736,12 +4767,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B44" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>0</v>
@@ -4753,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>140</v>
@@ -4768,16 +4799,16 @@
         <v>-117.863445</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L44" s="1">
         <v>934</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4790,11 +4821,11 @@
       <c r="S44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T44" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T44" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -4808,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>106</v>
@@ -4835,13 +4866,13 @@
         <v>451</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q45" s="1">
         <v>1</v>
@@ -4856,12 +4887,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
@@ -4873,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>107</v>
@@ -4888,19 +4919,19 @@
         <v>-117.82861699999999</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L46" s="1">
         <v>1057</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>455</v>
@@ -4915,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -4932,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>107</v>
@@ -4956,10 +4987,10 @@
         <v>1050</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>456</v>
@@ -4980,12 +5011,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C48" s="2" t="b">
         <v>0</v>
@@ -4994,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>107</v>
@@ -5012,16 +5043,16 @@
         <v>-117.810315</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L48" s="1">
         <v>1060</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>456</v>
@@ -5039,15 +5070,15 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>552</v>
       </c>
       <c r="C49" s="2" t="b">
         <v>0</v>
@@ -5056,60 +5087,56 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="1">
-        <v>45.248955000000002</v>
+        <v>45.149349999999998</v>
       </c>
       <c r="J49" s="1">
-        <v>-118.388958</v>
+        <v>-117.73515</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
       <c r="L49" s="1">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>517</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
+        <v>278</v>
       </c>
       <c r="C50" s="2" t="b">
         <v>0</v>
@@ -5118,10 +5145,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>106</v>
@@ -5130,44 +5157,48 @@
         <v>140</v>
       </c>
       <c r="I50" s="1">
-        <v>45.135029000000003</v>
+        <v>45.248955000000002</v>
       </c>
       <c r="J50" s="1">
-        <v>-118.36672299999999</v>
+        <v>-118.388958</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="L50" s="1">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="Q50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R50" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S50" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B51" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>0</v>
@@ -5176,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>106</v>
@@ -5188,22 +5219,22 @@
         <v>140</v>
       </c>
       <c r="I51" s="1">
-        <v>45.078938000000001</v>
+        <v>45.135029000000003</v>
       </c>
       <c r="J51" s="1">
-        <v>-118.331371</v>
+        <v>-118.36672299999999</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L51" s="1">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5217,15 +5248,15 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B52" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C52" s="2" t="b">
         <v>0</v>
@@ -5234,180 +5265,176 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>496</v>
+        <v>106</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>140</v>
       </c>
       <c r="I52" s="1">
-        <v>45.264754000000003</v>
+        <v>45.078938000000001</v>
       </c>
       <c r="J52" s="1">
-        <v>-118.38008000000001</v>
+        <v>-118.331371</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L52" s="1">
-        <v>1083</v>
+        <v>1112</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="1">
+        <v>2</v>
+      </c>
+      <c r="R52" s="1">
+        <v>2</v>
+      </c>
+      <c r="S52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="1">
+        <v>45.264754000000003</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-118.38008000000001</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1083</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="1">
         <v>3</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R53" s="1">
         <v>3</v>
       </c>
-      <c r="S52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T52" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="S53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="C54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" s="1">
-        <v>45.758183000000002</v>
-      </c>
-      <c r="J53" s="1">
-        <v>-116.306603</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L53" s="1">
-        <v>913</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>2</v>
-      </c>
-      <c r="R53" s="1">
-        <v>4</v>
-      </c>
-      <c r="S53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I54" s="1">
-        <v>45.175659000000003</v>
+        <v>45.758183000000002</v>
       </c>
       <c r="J54" s="1">
-        <v>-115.579712</v>
+        <v>-116.306603</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L54" s="1">
-        <v>1070</v>
+        <v>913</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S54" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C55" s="2" t="b">
         <v>1</v>
@@ -5416,60 +5443,60 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I55" s="1">
-        <v>45.033299999999997</v>
+        <v>45.175659000000003</v>
       </c>
       <c r="J55" s="1">
-        <v>-115.73302</v>
+        <v>-115.579712</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L55" s="1">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S55" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C56" s="2" t="b">
         <v>1</v>
@@ -5478,72 +5505,72 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I56" s="1">
-        <v>44.956204999999997</v>
+        <v>45.033299999999997</v>
       </c>
       <c r="J56" s="1">
-        <v>-115.53315000000001</v>
+        <v>-115.73302</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L56" s="1">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q56" s="1">
         <v>2</v>
       </c>
       <c r="R56" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S56" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>119</v>
@@ -5552,110 +5579,110 @@
         <v>142</v>
       </c>
       <c r="I57" s="1">
-        <v>44.928995</v>
+        <v>44.956204999999997</v>
       </c>
       <c r="J57" s="1">
-        <v>-115.333883</v>
+        <v>-115.53315000000001</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L57" s="1">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q57" s="1">
         <v>2</v>
       </c>
       <c r="R57" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I58" s="1">
-        <v>44.978471999999996</v>
+        <v>44.928995</v>
       </c>
       <c r="J58" s="1">
-        <v>-115.726994</v>
+        <v>-115.333883</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L58" s="1">
-        <v>1105</v>
+        <v>1142</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q58" s="1">
         <v>2</v>
       </c>
       <c r="R58" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S58" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C59" s="2" t="b">
         <v>1</v>
@@ -5664,275 +5691,275 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I59" s="1">
-        <v>45.103532000000001</v>
+        <v>44.978471999999996</v>
       </c>
       <c r="J59" s="1">
-        <v>-114.85381700000001</v>
+        <v>-115.726994</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L59" s="1">
-        <v>1184</v>
+        <v>1105</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q59" s="1">
         <v>2</v>
       </c>
       <c r="R59" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S59" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
+      <c r="E60" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I60" s="1">
-        <v>44.427939000000002</v>
+        <v>45.103532000000001</v>
       </c>
       <c r="J60" s="1">
-        <v>-115.284171</v>
+        <v>-114.85381700000001</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L60" s="1">
-        <v>1320</v>
+        <v>1184</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="Q60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R60" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S60" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>539</v>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>117</v>
+        <v>473</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I61" s="1">
-        <v>44.408689000000003</v>
+        <v>44.427939000000002</v>
       </c>
       <c r="J61" s="1">
-        <v>-115.179841</v>
+        <v>-115.284171</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L61" s="1">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
         <v>2</v>
       </c>
-      <c r="R61" s="1">
-        <v>8</v>
-      </c>
       <c r="S61" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>478</v>
+        <v>117</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I62" s="1">
-        <v>45.295253000000002</v>
+        <v>44.408689000000003</v>
       </c>
       <c r="J62" s="1">
-        <v>-114.358101</v>
+        <v>-115.179841</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L62" s="1">
-        <v>1168</v>
+        <v>1322</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q62" s="1">
         <v>2</v>
       </c>
       <c r="R62" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="C63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I63" s="1">
-        <v>45.417558</v>
+        <v>45.295253000000002</v>
       </c>
       <c r="J63" s="1">
-        <v>-113.994089</v>
+        <v>-114.358101</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L63" s="1">
-        <v>1208</v>
+        <v>1168</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>469</v>
@@ -5941,7 +5968,7 @@
         <v>456</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q63" s="1">
         <v>2</v>
@@ -5953,201 +5980,201 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I64" s="1">
-        <v>45.246485</v>
+        <v>45.417558</v>
       </c>
       <c r="J64" s="1">
-        <v>-113.893466</v>
+        <v>-113.994089</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L64" s="1">
-        <v>1234</v>
+        <v>1208</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R64" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S64" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="C65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>475</v>
+        <v>124</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I65" s="1">
-        <v>45.176475000000003</v>
+        <v>45.246485</v>
       </c>
       <c r="J65" s="1">
-        <v>-113.885278</v>
+        <v>-113.893466</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L65" s="1">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R65" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I66" s="1">
-        <v>45.115074</v>
+        <v>45.176475000000003</v>
       </c>
       <c r="J66" s="1">
-        <v>-113.774021</v>
+        <v>-113.885278</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L66" s="1">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q66" s="1">
         <v>2</v>
       </c>
       <c r="R66" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C67" s="2" t="b">
         <v>0</v>
@@ -6155,23 +6182,23 @@
       <c r="D67" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
+      <c r="E67" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I67" s="1">
-        <v>45.113169999999997</v>
+        <v>45.115074</v>
       </c>
       <c r="J67" s="1">
-        <v>-113.7556</v>
+        <v>-113.774021</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>320</v>
@@ -6185,57 +6212,61 @@
       <c r="N67" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I68" s="1">
-        <v>45.111257000000002</v>
+        <v>45.113169999999997</v>
       </c>
       <c r="J68" s="1">
-        <v>-113.74641800000001</v>
+        <v>-113.7556</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L68" s="1">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>453</v>
@@ -6255,15 +6286,15 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C69" s="2" t="b">
         <v>0</v>
@@ -6275,19 +6306,19 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I69" s="1">
-        <v>45.112769999999998</v>
+        <v>45.111257000000002</v>
       </c>
       <c r="J69" s="1">
-        <v>-113.74987</v>
+        <v>-113.74641800000001</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>327</v>
@@ -6313,104 +6344,100 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C70" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>127</v>
+        <v>474</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I70" s="1">
-        <v>45.112189000000001</v>
+        <v>45.112769999999998</v>
       </c>
       <c r="J70" s="1">
-        <v>-113.746897</v>
+        <v>-113.74987</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L70" s="1">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S70" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I71" s="1">
-        <v>45.109456999999999</v>
+        <v>45.112189000000001</v>
       </c>
       <c r="J71" s="1">
-        <v>-113.742696</v>
+        <v>-113.746897</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L71" s="1">
         <v>1259</v>
@@ -6419,59 +6446,63 @@
         <v>453</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I72" s="1">
-        <v>45.100087000000002</v>
+        <v>45.109456999999999</v>
       </c>
       <c r="J72" s="1">
-        <v>-113.72604200000001</v>
+        <v>-113.742696</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L72" s="1">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>453</v>
@@ -6479,67 +6510,63 @@
       <c r="N72" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>455</v>
-      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I73" s="1">
-        <v>45.097937999999999</v>
+        <v>45.100087000000002</v>
       </c>
       <c r="J73" s="1">
-        <v>-113.72049699999999</v>
+        <v>-113.72604200000001</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L73" s="1">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>454</v>
@@ -6548,60 +6575,60 @@
         <v>455</v>
       </c>
       <c r="Q73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S73" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E74" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I74" s="1">
-        <v>45.026792</v>
+        <v>45.097937999999999</v>
       </c>
       <c r="J74" s="1">
-        <v>-113.654847</v>
+        <v>-113.72049699999999</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L74" s="1">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>454</v>
@@ -6610,60 +6637,60 @@
         <v>455</v>
       </c>
       <c r="Q74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S74" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I75" s="1">
-        <v>44.956738999999999</v>
+        <v>45.026792</v>
       </c>
       <c r="J75" s="1">
-        <v>-113.639543</v>
+        <v>-113.654847</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L75" s="1">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>454</v>
@@ -6672,144 +6699,144 @@
         <v>455</v>
       </c>
       <c r="Q75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S75" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>351</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>475</v>
+        <v>129</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I76" s="1">
-        <v>44.896909999999998</v>
+        <v>44.956738999999999</v>
       </c>
       <c r="J76" s="1">
-        <v>-113.62475000000001</v>
+        <v>-113.639543</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L76" s="1">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76" s="1">
         <v>3</v>
       </c>
       <c r="S76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I77" s="1">
-        <v>44.861654000000001</v>
+        <v>44.896909999999998</v>
       </c>
       <c r="J77" s="1">
-        <v>-113.63193699999999</v>
+        <v>-113.62475000000001</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L77" s="1">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C78" s="2" t="b">
         <v>1</v>
@@ -6818,25 +6845,25 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>475</v>
+        <v>126</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I78" s="1">
-        <v>44.865960000000001</v>
+        <v>44.861654000000001</v>
       </c>
       <c r="J78" s="1">
-        <v>-113.62472099999999</v>
+        <v>-113.63193699999999</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L78" s="1">
         <v>1291</v>
@@ -6845,33 +6872,33 @@
         <v>453</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q78" s="1">
         <v>2</v>
       </c>
       <c r="R78" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S78" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C79" s="2" t="b">
         <v>1</v>
@@ -6880,158 +6907,158 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I79" s="1">
-        <v>44.780552</v>
+        <v>44.865960000000001</v>
       </c>
       <c r="J79" s="1">
-        <v>-113.545027</v>
+        <v>-113.62472099999999</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L79" s="1">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q79" s="1">
         <v>2</v>
       </c>
       <c r="R79" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S79" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T79" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I80" s="1">
-        <v>44.738218000000003</v>
+        <v>44.780552</v>
       </c>
       <c r="J80" s="1">
-        <v>-113.462458</v>
+        <v>-113.545027</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L80" s="1">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q80" s="1">
         <v>2</v>
       </c>
       <c r="R80" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S80" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T80" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="C81" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I81" s="1">
-        <v>44.727348999999997</v>
+        <v>44.738218000000003</v>
       </c>
       <c r="J81" s="1">
-        <v>-113.43321400000001</v>
+        <v>-113.462458</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L81" s="1">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>454</v>
@@ -7040,60 +7067,60 @@
         <v>455</v>
       </c>
       <c r="Q81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R81" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S81" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T81" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I82" s="1">
-        <v>44.747073999999998</v>
+        <v>44.727348999999997</v>
       </c>
       <c r="J82" s="1">
-        <v>-113.47464100000001</v>
+        <v>-113.43321400000001</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L82" s="1">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>454</v>
@@ -7105,21 +7132,21 @@
         <v>3</v>
       </c>
       <c r="R82" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S82" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="C83" s="2" t="b">
         <v>0</v>
@@ -7131,65 +7158,69 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I83" s="1">
-        <v>44.688110000000002</v>
+        <v>44.747073999999998</v>
       </c>
       <c r="J83" s="1">
-        <v>-113.37041000000001</v>
+        <v>-113.47464100000001</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L83" s="1">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S83" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T83" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>132</v>
@@ -7198,10 +7229,10 @@
         <v>142</v>
       </c>
       <c r="I84" s="1">
-        <v>44.697567999999997</v>
+        <v>44.688110000000002</v>
       </c>
       <c r="J84" s="1">
-        <v>-113.374118</v>
+        <v>-113.37041000000001</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>373</v>
@@ -7213,45 +7244,41 @@
         <v>453</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
       <c r="Q84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R84" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S84" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T84" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>132</v>
@@ -7260,48 +7287,48 @@
         <v>142</v>
       </c>
       <c r="I85" s="1">
-        <v>44.660443999999998</v>
+        <v>44.697567999999997</v>
       </c>
       <c r="J85" s="1">
-        <v>-113.377624</v>
+        <v>-113.374118</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L85" s="1">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q85" s="1">
         <v>3</v>
       </c>
       <c r="R85" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S85" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T85" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C86" s="2" t="b">
         <v>0</v>
@@ -7313,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>132</v>
@@ -7322,22 +7349,22 @@
         <v>142</v>
       </c>
       <c r="I86" s="1">
-        <v>44.613860000000003</v>
+        <v>44.660443999999998</v>
       </c>
       <c r="J86" s="1">
-        <v>-113.397036</v>
+        <v>-113.377624</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L86" s="1">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>454</v>
@@ -7346,7 +7373,7 @@
         <v>455</v>
       </c>
       <c r="Q86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R86" s="1">
         <v>4</v>
@@ -7355,57 +7382,57 @@
         <v>1</v>
       </c>
       <c r="T86" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C87" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I87" s="1">
-        <v>44.691090000000003</v>
+        <v>44.613860000000003</v>
       </c>
       <c r="J87" s="1">
-        <v>-113.365281</v>
+        <v>-113.397036</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L87" s="1">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q87" s="1">
         <v>2</v>
@@ -7417,107 +7444,107 @@
         <v>1</v>
       </c>
       <c r="T87" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C88" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>481</v>
+        <v>133</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I88" s="1">
-        <v>44.682794999999999</v>
+        <v>44.691090000000003</v>
       </c>
       <c r="J88" s="1">
-        <v>-113.35366</v>
+        <v>-113.365281</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L88" s="1">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R88" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S88" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T88" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C89" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I89" s="1">
-        <v>44.668593999999999</v>
+        <v>44.682794999999999</v>
       </c>
       <c r="J89" s="1">
-        <v>-113.31155</v>
+        <v>-113.35366</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L89" s="1">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>453</v>
@@ -7525,72 +7552,72 @@
       <c r="N89" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q89" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R89" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S89" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T89" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C90" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>552</v>
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I90" s="1">
-        <v>45.028530000000003</v>
+        <v>44.668593999999999</v>
       </c>
       <c r="J90" s="1">
-        <v>-113.916319</v>
+        <v>-113.31155</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L90" s="1">
-        <v>1262</v>
+        <v>1338</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R90" s="1">
         <v>6</v>
@@ -7599,15 +7626,15 @@
         <v>1</v>
       </c>
       <c r="T90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C91" s="2" t="b">
         <v>1</v>
@@ -7615,41 +7642,41 @@
       <c r="D91" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="b">
-        <v>0</v>
+      <c r="E91" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I91" s="1">
-        <v>44.889763000000002</v>
+        <v>45.028530000000003</v>
       </c>
       <c r="J91" s="1">
-        <v>-113.964145</v>
+        <v>-113.916319</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L91" s="1">
-        <v>1285</v>
+        <v>1262</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>453</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q91" s="1">
         <v>1</v>
@@ -7661,116 +7688,120 @@
         <v>1</v>
       </c>
       <c r="T91" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>552</v>
+      <c r="E92" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I92" s="1">
-        <v>44.287737</v>
+        <v>44.889763000000002</v>
       </c>
       <c r="J92" s="1">
-        <v>-114.72045300000001</v>
+        <v>-113.964145</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L92" s="1">
-        <v>1419</v>
+        <v>1285</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R92" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S92" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T92" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C93" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>476</v>
+        <v>136</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I93" s="1">
-        <v>44.339058999999999</v>
+        <v>44.287737</v>
       </c>
       <c r="J93" s="1">
-        <v>-114.72163999999999</v>
+        <v>-114.72045300000001</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L93" s="1">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="Q93" s="1">
         <v>2</v>
       </c>
@@ -7778,92 +7809,88 @@
         <v>4</v>
       </c>
       <c r="S93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>137</v>
+        <v>475</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I94" s="1">
-        <v>44.221899999999998</v>
+        <v>44.339058999999999</v>
       </c>
       <c r="J94" s="1">
-        <v>-114.93146</v>
+        <v>-114.72163999999999</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L94" s="1">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="1">
         <v>2</v>
       </c>
       <c r="R94" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>137</v>
@@ -7872,140 +7899,140 @@
         <v>142</v>
       </c>
       <c r="I95" s="1">
-        <v>44.218671999999998</v>
+        <v>44.221899999999998</v>
       </c>
       <c r="J95" s="1">
-        <v>-114.94215</v>
+        <v>-114.93146</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L95" s="1">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q95" s="1">
         <v>2</v>
       </c>
       <c r="R95" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S95" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T95" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>409</v>
       </c>
       <c r="C96" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I96" s="1">
-        <v>44.164726999999999</v>
+        <v>44.218671999999998</v>
       </c>
       <c r="J96" s="1">
-        <v>-114.90504300000001</v>
+        <v>-114.94215</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L96" s="1">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R96" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>509</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>510</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>482</v>
+        <v>138</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I97" s="1">
-        <v>44.153368999999998</v>
+        <v>44.164726999999999</v>
       </c>
       <c r="J97" s="1">
-        <v>-114.88377199999999</v>
+        <v>-114.90504300000001</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="L97" s="1">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>453</v>
@@ -8013,89 +8040,89 @@
       <c r="N97" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="Q97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R97" s="1">
         <v>4</v>
       </c>
       <c r="S97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T97" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T97" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>34</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="C98" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>539</v>
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>110</v>
+        <v>481</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I98" s="1">
-        <v>45.767740000000003</v>
+        <v>44.153368999999998</v>
       </c>
       <c r="J98" s="1">
-        <v>-116.74403700000001</v>
+        <v>-114.88377199999999</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="L98" s="1">
-        <v>837</v>
+        <v>1442</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="1">
         <v>2</v>
       </c>
       <c r="R98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S98" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T98" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T98" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>43</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="C99" s="2" t="b">
         <v>0</v>
@@ -8103,123 +8130,115 @@
       <c r="D99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E99" s="2" t="b">
-        <v>0</v>
+      <c r="E99" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>111</v>
+        <v>557</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I99" s="1">
-        <v>45.194276000000002</v>
+        <v>44.031359999999999</v>
       </c>
       <c r="J99" s="1">
-        <v>-116.868663</v>
+        <v>-114.83561</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="L99" s="1">
-        <v>914</v>
+        <v>1455</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R99" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T99" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>35</v>
+        <v>561</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>562</v>
       </c>
       <c r="C100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>111</v>
+        <v>562</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I100" s="1">
-        <v>45.761051999999999</v>
+        <v>44.017490000000002</v>
       </c>
       <c r="J100" s="1">
-        <v>-116.750231</v>
+        <v>-114.81962</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>418</v>
+        <v>563</v>
       </c>
       <c r="L100" s="1">
-        <v>837</v>
+        <v>1458</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="1">
         <v>1</v>
       </c>
       <c r="R100" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T100" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C101" s="2" t="b">
         <v>1</v>
@@ -8228,60 +8247,60 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I101" s="1">
-        <v>45.742702000000001</v>
+        <v>45.767740000000003</v>
       </c>
       <c r="J101" s="1">
-        <v>-116.764304</v>
+        <v>-116.74403700000001</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L101" s="1">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R101" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S101" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T101" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C102" s="2" t="b">
         <v>0</v>
@@ -8289,102 +8308,106 @@
       <c r="D102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>539</v>
+      <c r="E102" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I102" s="1">
-        <v>45.554828000000001</v>
+        <v>45.194276000000002</v>
       </c>
       <c r="J102" s="1">
-        <v>-116.872927</v>
+        <v>-116.868663</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="L102" s="1">
-        <v>866</v>
+        <v>914</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q102" s="1">
         <v>2</v>
       </c>
       <c r="R102" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S102" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T102" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>426</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C103" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>477</v>
+        <v>111</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I103" s="1">
-        <v>45.516989000000002</v>
+        <v>45.761051999999999</v>
       </c>
       <c r="J103" s="1">
-        <v>-116.868492</v>
+        <v>-116.750231</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L103" s="1">
-        <v>868</v>
+        <v>837</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="Q103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R103" s="1">
         <v>4</v>
@@ -8393,15 +8416,15 @@
         <v>1</v>
       </c>
       <c r="T103" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C104" s="2" t="b">
         <v>1</v>
@@ -8410,122 +8433,122 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I104" s="1">
-        <v>45.506481999999998</v>
+        <v>45.742702000000001</v>
       </c>
       <c r="J104" s="1">
-        <v>-116.850735</v>
+        <v>-116.764304</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L104" s="1">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R104" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S104" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T104" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C105" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I105" s="1">
-        <v>45.489956999999997</v>
+        <v>45.554828000000001</v>
       </c>
       <c r="J105" s="1">
-        <v>-116.804096</v>
+        <v>-116.872927</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L105" s="1">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q105" s="1">
         <v>2</v>
       </c>
       <c r="R105" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S105" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C106" s="2" t="b">
         <v>0</v>
@@ -8534,28 +8557,28 @@
         <v>1</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>114</v>
+        <v>476</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I106" s="1">
-        <v>45.328017000000003</v>
+        <v>45.516989000000002</v>
       </c>
       <c r="J106" s="1">
-        <v>-116.806641</v>
+        <v>-116.868492</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L106" s="1">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>451</v>
@@ -8563,73 +8586,69 @@
       <c r="N106" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="O106" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>457</v>
-      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="1">
         <v>2</v>
       </c>
       <c r="R106" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S106" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T106" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C107" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I107" s="1">
-        <v>45.229300000000002</v>
+        <v>45.506481999999998</v>
       </c>
       <c r="J107" s="1">
-        <v>-116.84478</v>
+        <v>-116.850735</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L107" s="1">
-        <v>911</v>
+        <v>868</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>456</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q107" s="1">
         <v>2</v>
@@ -8641,27 +8660,27 @@
         <v>1</v>
       </c>
       <c r="T107" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C108" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>111</v>
@@ -8670,28 +8689,28 @@
         <v>141</v>
       </c>
       <c r="I108" s="1">
-        <v>45.194459999999999</v>
+        <v>45.489956999999997</v>
       </c>
       <c r="J108" s="1">
-        <v>-116.868774</v>
+        <v>-116.804096</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L108" s="1">
-        <v>914</v>
+        <v>871</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q108" s="1">
         <v>2</v>
@@ -8703,15 +8722,15 @@
         <v>1</v>
       </c>
       <c r="T108" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C109" s="2" t="b">
         <v>0</v>
@@ -8720,179 +8739,365 @@
         <v>1</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I109" s="1">
-        <v>45.193187999999999</v>
+        <v>45.328017000000003</v>
       </c>
       <c r="J109" s="1">
-        <v>-116.868593</v>
+        <v>-116.806641</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L109" s="1">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q109" s="1">
         <v>2</v>
       </c>
       <c r="R109" s="1">
+        <v>2</v>
+      </c>
+      <c r="S109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I110" s="1">
+        <v>45.229300000000002</v>
+      </c>
+      <c r="J110" s="1">
+        <v>-116.84478</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L110" s="1">
+        <v>911</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>2</v>
+      </c>
+      <c r="R110" s="1">
+        <v>4</v>
+      </c>
+      <c r="S110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>442</v>
+      </c>
+      <c r="C111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" s="1">
+        <v>45.194459999999999</v>
+      </c>
+      <c r="J111" s="1">
+        <v>-116.868774</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L111" s="1">
+        <v>914</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>2</v>
+      </c>
+      <c r="R111" s="1">
+        <v>6</v>
+      </c>
+      <c r="S111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I112" s="1">
+        <v>45.193187999999999</v>
+      </c>
+      <c r="J112" s="1">
+        <v>-116.868593</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L112" s="1">
+        <v>914</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>2</v>
+      </c>
+      <c r="R112" s="1">
         <v>8</v>
       </c>
-      <c r="S109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T109" t="s">
+      <c r="S112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B113" t="s">
+        <v>542</v>
+      </c>
+      <c r="C113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I113" s="1">
+        <v>46.068375000000003</v>
+      </c>
+      <c r="J113" s="1">
+        <v>-117.00210800000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B114" t="s">
+        <v>543</v>
+      </c>
+      <c r="C114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I114" s="1">
+        <v>45.661532999999999</v>
+      </c>
+      <c r="J114" s="1">
+        <v>-116.29295500000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B115" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="C115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I115" s="1">
+        <v>46.424287</v>
+      </c>
+      <c r="J115" s="1">
+        <v>-116.92845800000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B116" t="s">
+        <v>545</v>
+      </c>
+      <c r="C116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I110" s="1">
-        <v>46.068375000000003</v>
-      </c>
-      <c r="J110" s="1">
-        <v>-117.00210800000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B111" t="s">
-        <v>545</v>
-      </c>
-      <c r="C111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I111" s="1">
-        <v>45.661532999999999</v>
-      </c>
-      <c r="J111" s="1">
-        <v>-116.29295500000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" t="s">
-        <v>546</v>
-      </c>
-      <c r="C112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I112" s="1">
-        <v>46.424287</v>
-      </c>
-      <c r="J112" s="1">
-        <v>-116.92845800000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B113" t="s">
-        <v>547</v>
-      </c>
-      <c r="C113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I113" s="1">
+      <c r="I116" s="1">
         <v>46.368718999999999</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J116" s="1">
         <v>-117.060455</v>
       </c>
     </row>
@@ -8910,34 +9115,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
